--- a/dataset/raw/prarthana.xlsx
+++ b/dataset/raw/prarthana.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsnra\Desktop\chandassu\dataset\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ADF5B0-738D-4A98-BF7B-8AE428CA3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14B5A1C-A16D-4BF4-A818-95C1ADE3BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6CAF233D-8996-46B5-BE55-6B31FF719228}"/>
   </bookViews>
@@ -54,13 +54,13 @@
     <t>vruttamu</t>
   </si>
   <si>
-    <t>bhaskara</t>
-  </si>
-  <si>
     <t>vutpalamaala</t>
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>prarthana</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
